--- a/biology/Zoologie/Codakia/Codakia.xlsx
+++ b/biology/Zoologie/Codakia/Codakia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Codakia est un genre de mollusques bivalves marins de la famille des Lucinidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (26 août 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (26 août 2021) :
 Codakia californica T. A. Conrad, 1837
 Codakia costata d'Orbigny, 1842
 Codakia distinguenda G. W. Tryon, 1872
@@ -557,7 +573,7 @@
 Codakia reevei G. P. Deshayes, 1863
 Codakia rugifera (Reeve, 1835)
 Codakia tigerina C. Linnaeus, 1758
-Selon ITIS      (26 août 2021)[1] :
+Selon ITIS      (26 août 2021) :
 Codakia costata (d'Orbigny, 1842)
 Codakia cubana Dall, 1901
 Codakia decussata (O. G. Costa, 1836)
@@ -565,13 +581,13 @@
 Codakia orbicularis (Linnaeus, 1758)
 Codakia orbiculata (Montagu, 1808)
 Codakia pectinella (C. B. Adams, 1852)
-Selon NCBI  (26 août 2021)[4] :
+Selon NCBI  (26 août 2021) :
 Codakia interrupta (Lamarck, 1818)
 Codakia orbicularis
 Codakia paytenorum (Iredale, 1937)
 Codakia rugifera Lucina rugifera Reeve, 1835
 Codakia tigerina Venus tigerina Linnaeus, 1758
-Selon World Register of Marine Species                               (26 août 2021)[2] :
+Selon World Register of Marine Species                               (26 août 2021) :
 Codakia distinguenda (Tryon, 1872)
 Codakia interrupta (Lamarck, 1818)
 Codakia leonina (Basterot, 1825) †
